--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Adipoq</t>
+  </si>
+  <si>
+    <t>Adipor1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adipoq</t>
-  </si>
-  <si>
-    <t>Adipor1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.166658</v>
       </c>
       <c r="I2">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.160615</v>
+        <v>30.566449</v>
       </c>
       <c r="N2">
-        <v>56.32123</v>
+        <v>61.132898</v>
       </c>
       <c r="O2">
-        <v>0.1869656966890273</v>
+        <v>0.1396896061442854</v>
       </c>
       <c r="P2">
-        <v>0.1373310239857343</v>
+        <v>0.1001020120998126</v>
       </c>
       <c r="Q2">
-        <v>1.564397258223333</v>
+        <v>1.698047752480667</v>
       </c>
       <c r="R2">
-        <v>9.38638354934</v>
+        <v>10.188286514884</v>
       </c>
       <c r="S2">
-        <v>0.08433634871719897</v>
+        <v>0.1396896061442854</v>
       </c>
       <c r="T2">
-        <v>0.06194717712209412</v>
+        <v>0.1001020120998126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.166658</v>
       </c>
       <c r="I3">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.702815</v>
       </c>
       <c r="O3">
-        <v>0.07016109666495028</v>
+        <v>0.04829427783182737</v>
       </c>
       <c r="P3">
-        <v>0.07730264497384549</v>
+        <v>0.05191174759502031</v>
       </c>
       <c r="Q3">
-        <v>0.5870586380299999</v>
+        <v>0.58705863803</v>
       </c>
       <c r="R3">
         <v>5.28352774227</v>
       </c>
       <c r="S3">
-        <v>0.03164821579307183</v>
+        <v>0.04829427783182737</v>
       </c>
       <c r="T3">
-        <v>0.03486962014277711</v>
+        <v>0.05191174759502031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.166658</v>
       </c>
       <c r="I4">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.59250466666666</v>
+        <v>25.74003233333333</v>
       </c>
       <c r="N4">
-        <v>106.777514</v>
+        <v>77.220097</v>
       </c>
       <c r="O4">
-        <v>0.2363079581859555</v>
+        <v>0.1176327344659665</v>
       </c>
       <c r="P4">
-        <v>0.2603612409791313</v>
+        <v>0.1264439824894724</v>
       </c>
       <c r="Q4">
-        <v>1.977258547579111</v>
+        <v>1.429927436202889</v>
       </c>
       <c r="R4">
-        <v>17.795326928212</v>
+        <v>12.869346925826</v>
       </c>
       <c r="S4">
-        <v>0.106593619680768</v>
+        <v>0.1176327344659665</v>
       </c>
       <c r="T4">
-        <v>0.1174435567620751</v>
+        <v>0.1264439824894724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.166658</v>
       </c>
       <c r="I5">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.583906</v>
+        <v>15.178317</v>
       </c>
       <c r="N5">
-        <v>27.167812</v>
+        <v>30.356634</v>
       </c>
       <c r="O5">
-        <v>0.09018710880597809</v>
+        <v>0.06936537259081395</v>
       </c>
       <c r="P5">
-        <v>0.06624470810406519</v>
+        <v>0.0497074446557005</v>
       </c>
       <c r="Q5">
-        <v>0.7546222020493333</v>
+        <v>0.843195984862</v>
       </c>
       <c r="R5">
-        <v>4.527733212296</v>
+        <v>5.059175909172</v>
       </c>
       <c r="S5">
-        <v>0.04068153459566318</v>
+        <v>0.06936537259081395</v>
       </c>
       <c r="T5">
-        <v>0.02988161412639167</v>
+        <v>0.0497074446557005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.166658</v>
       </c>
       <c r="I6">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.49180566666667</v>
+        <v>108.7065173333333</v>
       </c>
       <c r="N6">
-        <v>64.47541700000001</v>
+        <v>326.119552</v>
       </c>
       <c r="O6">
-        <v>0.1426897253335383</v>
+        <v>0.4967921066529604</v>
       </c>
       <c r="P6">
-        <v>0.1572138079817721</v>
+        <v>0.5340041844620138</v>
       </c>
       <c r="Q6">
-        <v>1.193927116265111</v>
+        <v>6.038936921912889</v>
       </c>
       <c r="R6">
-        <v>10.745344046386</v>
+        <v>54.350432297216</v>
       </c>
       <c r="S6">
-        <v>0.06436437617808677</v>
+        <v>0.4967921066529604</v>
       </c>
       <c r="T6">
-        <v>0.07091588867856541</v>
+        <v>0.5340041844620138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.166658</v>
       </c>
       <c r="I7">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.22271733333333</v>
+        <v>28.05799666666667</v>
       </c>
       <c r="N7">
-        <v>123.668152</v>
+        <v>84.17399000000002</v>
       </c>
       <c r="O7">
-        <v>0.2736884143205505</v>
+        <v>0.1282259023141465</v>
       </c>
       <c r="P7">
-        <v>0.3015465739754518</v>
+        <v>0.1378306286979804</v>
       </c>
       <c r="Q7">
-        <v>2.290031875112889</v>
+        <v>1.558696536157778</v>
       </c>
       <c r="R7">
-        <v>20.610286876016</v>
+        <v>14.02826882542</v>
       </c>
       <c r="S7">
-        <v>0.1234551682942479</v>
+        <v>0.1282259023141465</v>
       </c>
       <c r="T7">
-        <v>0.1360214064271334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.202807</v>
-      </c>
-      <c r="I8">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J8">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>28.160615</v>
-      </c>
-      <c r="N8">
-        <v>56.32123</v>
-      </c>
-      <c r="O8">
-        <v>0.1869656966890273</v>
-      </c>
-      <c r="P8">
-        <v>0.1373310239857343</v>
-      </c>
-      <c r="Q8">
-        <v>1.903723282101667</v>
-      </c>
-      <c r="R8">
-        <v>11.42233969261</v>
-      </c>
-      <c r="S8">
-        <v>0.1026293479718284</v>
-      </c>
-      <c r="T8">
-        <v>0.07538384686364016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.202807</v>
-      </c>
-      <c r="I9">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J9">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.567605</v>
-      </c>
-      <c r="N9">
-        <v>31.702815</v>
-      </c>
-      <c r="O9">
-        <v>0.07016109666495028</v>
-      </c>
-      <c r="P9">
-        <v>0.07730264497384549</v>
-      </c>
-      <c r="Q9">
-        <v>0.7143947557449999</v>
-      </c>
-      <c r="R9">
-        <v>6.429552801704999</v>
-      </c>
-      <c r="S9">
-        <v>0.03851288087187845</v>
-      </c>
-      <c r="T9">
-        <v>0.04243302483106839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.202807</v>
-      </c>
-      <c r="I10">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J10">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>35.59250466666666</v>
-      </c>
-      <c r="N10">
-        <v>106.777514</v>
-      </c>
-      <c r="O10">
-        <v>0.2363079581859555</v>
-      </c>
-      <c r="P10">
-        <v>0.2603612409791313</v>
-      </c>
-      <c r="Q10">
-        <v>2.406136364644222</v>
-      </c>
-      <c r="R10">
-        <v>21.655227281798</v>
-      </c>
-      <c r="S10">
-        <v>0.1297143385051874</v>
-      </c>
-      <c r="T10">
-        <v>0.1429176842170562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.202807</v>
-      </c>
-      <c r="I11">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J11">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.583906</v>
-      </c>
-      <c r="N11">
-        <v>27.167812</v>
-      </c>
-      <c r="O11">
-        <v>0.09018710880597809</v>
-      </c>
-      <c r="P11">
-        <v>0.06624470810406519</v>
-      </c>
-      <c r="Q11">
-        <v>0.9183037413806666</v>
-      </c>
-      <c r="R11">
-        <v>5.509822448283999</v>
-      </c>
-      <c r="S11">
-        <v>0.04950557421031491</v>
-      </c>
-      <c r="T11">
-        <v>0.03636309397767352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.202807</v>
-      </c>
-      <c r="I12">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J12">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>21.49180566666667</v>
-      </c>
-      <c r="N12">
-        <v>64.47541700000001</v>
-      </c>
-      <c r="O12">
-        <v>0.1426897253335383</v>
-      </c>
-      <c r="P12">
-        <v>0.1572138079817721</v>
-      </c>
-      <c r="Q12">
-        <v>1.452896210613222</v>
-      </c>
-      <c r="R12">
-        <v>13.076065895519</v>
-      </c>
-      <c r="S12">
-        <v>0.07832534915545156</v>
-      </c>
-      <c r="T12">
-        <v>0.08629791930320665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.202807</v>
-      </c>
-      <c r="I13">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J13">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>41.22271733333333</v>
-      </c>
-      <c r="N13">
-        <v>123.668152</v>
-      </c>
-      <c r="O13">
-        <v>0.2736884143205505</v>
-      </c>
-      <c r="P13">
-        <v>0.3015465739754518</v>
-      </c>
-      <c r="Q13">
-        <v>2.786751878073777</v>
-      </c>
-      <c r="R13">
-        <v>25.080766902664</v>
-      </c>
-      <c r="S13">
-        <v>0.1502332460263026</v>
-      </c>
-      <c r="T13">
-        <v>0.1655251675483184</v>
+        <v>0.1378306286979804</v>
       </c>
     </row>
   </sheetData>
